--- a/middle-to-gun/Excel/ROLE_角色表.xlsx
+++ b/middle-to-gun/Excel/ROLE_角色表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -45,6 +45,13 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,7 +78,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -97,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -105,6 +119,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -432,29 +449,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -486,7 +503,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -518,14 +535,14 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
       <c r="B3" s="1" t="str">
         <v>角色Guid</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="3" t="str">
         <v>0-免费
 1-金币|钻石
 2-钻石</v>
@@ -553,7 +570,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -575,7 +592,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -586,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>1|5888</v>
+        <v>100|5888</v>
       </c>
       <c r="E5" s="1" t="str">
         <v>兜帽男</v>
@@ -607,7 +624,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -618,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>1|8888</v>
+        <v>100|8888</v>
       </c>
       <c r="E6" s="1" t="str">
         <v>双马尾女</v>
@@ -639,7 +656,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -650,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>1|10888</v>
+        <v>100|10888</v>
       </c>
       <c r="E7" s="1" t="str">
         <v>男战士</v>
@@ -671,7 +688,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -682,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>1|13888</v>
+        <v>100|13888</v>
       </c>
       <c r="E8" s="1" t="str">
         <v>机甲少女</v>
@@ -703,7 +720,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -714,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>1|15888</v>
+        <v>100|15888</v>
       </c>
       <c r="E9" s="1" t="str">
         <v>男骑士</v>
@@ -735,7 +752,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -746,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="str">
-        <v>1|18888</v>
+        <v>100|18888</v>
       </c>
       <c r="E10" s="1" t="str">
         <v>纳米机甲女性</v>
@@ -767,39 +784,39 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="1">
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>219915</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <v>2|20888</v>
-      </c>
-      <c r="E11" s="1" t="str">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <v>300|30888</v>
+      </c>
+      <c r="E11" s="2" t="str">
         <v>赛博少年</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="12">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -810,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>2|20888</v>
+        <v>300|30888</v>
       </c>
       <c r="E12" s="1" t="str">
         <v>赛博少年</v>
@@ -831,39 +848,39 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="1">
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>219912</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <v>2|28888</v>
-      </c>
-      <c r="E13" s="1" t="str">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <v>300|30888</v>
+      </c>
+      <c r="E13" s="2" t="str">
         <v>赛博少女</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="14">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -874,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>2|28888</v>
+        <v>300|30888</v>
       </c>
       <c r="E14" s="1" t="str">
         <v>赛博少女</v>
@@ -895,7 +912,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -906,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>3|30888</v>
+        <v>500|50888</v>
       </c>
       <c r="E15" s="1" t="str">
         <v>一定锅少年</v>
@@ -927,7 +944,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -938,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v>3|30888</v>
+        <v>500|60888</v>
       </c>
       <c r="E16" s="1" t="str">
         <v>求神少年</v>
@@ -959,39 +976,39 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="1">
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>264622</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <v>3|35888</v>
-      </c>
-      <c r="E17" s="1" t="str">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <v>300|35888</v>
+      </c>
+      <c r="E17" s="2" t="str">
         <v>一定锅少女</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="18">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1002,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>3|38888</v>
+        <v>500|60888</v>
       </c>
       <c r="E18" s="1" t="str">
         <v>求神少女</v>
@@ -1023,7 +1040,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1034,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>3|38888</v>
+        <v>600|88888</v>
       </c>
       <c r="E19" s="1" t="str">
         <v>宝石铠甲男</v>
@@ -1055,7 +1072,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1066,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>3|38888</v>
+        <v>600|88888</v>
       </c>
       <c r="E20" s="1" t="str">
         <v>铠甲男战士</v>
@@ -1087,7 +1104,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1098,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v>3|38888</v>
+        <v>600|88888</v>
       </c>
       <c r="E21" s="1" t="str">
         <v>黑人男纳米机甲</v>
@@ -1119,7 +1136,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1130,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>3|38888</v>
+        <v>600|88888</v>
       </c>
       <c r="E22" s="1" t="str">
         <v>白人男纳米机甲</v>
@@ -1151,7 +1168,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1162,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>3|38888</v>
+        <v>600|88888</v>
       </c>
       <c r="E23" s="1" t="str">
         <v>白银骑士</v>
@@ -1183,7 +1200,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1194,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v>4|40888</v>
+        <v>600|88888</v>
       </c>
       <c r="E24" s="1" t="str">
         <v>鹰战士</v>
@@ -1215,7 +1232,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1226,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>4|40888</v>
+        <v>600|88888</v>
       </c>
       <c r="E25" s="1" t="str">
         <v>战士</v>
@@ -1247,7 +1264,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1258,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v>4|43888</v>
+        <v>600|88888</v>
       </c>
       <c r="E26" s="1" t="str">
         <v>毒液怪人</v>
@@ -1279,7 +1296,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1290,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="str">
-        <v>4|43888</v>
+        <v>600|88888</v>
       </c>
       <c r="E27" s="1" t="str">
         <v>蚁侠士</v>
@@ -1311,7 +1328,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1322,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="str">
-        <v>4|45888</v>
+        <v>600|88888</v>
       </c>
       <c r="E28" s="1" t="str">
         <v>最强队长</v>
@@ -1343,7 +1360,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1354,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="str">
-        <v>4|45888</v>
+        <v>600|88888</v>
       </c>
       <c r="E29" s="1" t="str">
         <v>超帅侠</v>
@@ -1375,7 +1392,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1386,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>4|45888</v>
+        <v>600|88888</v>
       </c>
       <c r="E30" s="1" t="str">
         <v>奇异战士</v>
@@ -1407,7 +1424,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1418,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="str">
-        <v>4|45888</v>
+        <v>600|88888</v>
       </c>
       <c r="E31" s="1" t="str">
         <v>闪电怪</v>
@@ -1439,7 +1456,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row customHeight="true" ht="23" r="32">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1450,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="str">
-        <v>4|48888</v>
+        <v>600|88888</v>
       </c>
       <c r="E32" s="1" t="str">
         <v>恶灵骷髅</v>
@@ -1471,7 +1488,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1482,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="str">
-        <v>4|48888</v>
+        <v>1000|108888</v>
       </c>
       <c r="E33" s="1" t="str">
         <v>铁人</v>
@@ -1503,7 +1520,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row customHeight="true" ht="23" r="34">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1514,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="str">
-        <v>5|50888</v>
+        <v>1000|128888</v>
       </c>
       <c r="E34" s="1" t="str">
         <v>风衣女</v>
@@ -1535,7 +1552,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row customHeight="true" ht="23" r="35">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -1546,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>5|55888</v>
+        <v>1000|158888</v>
       </c>
       <c r="E35" s="1" t="str">
         <v>汉服少女</v>
@@ -1567,39 +1584,39 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="1">
+    <row customHeight="true" ht="23" r="36">
+      <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>266860</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="str">
-        <v>5|55888</v>
-      </c>
-      <c r="E36" s="1" t="str">
+        <v>1000|158888</v>
+      </c>
+      <c r="E36" s="2" t="str">
         <v>时尚少女</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="37">
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+    </row>
+    <row customHeight="true" ht="23" r="37">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -1610,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>5|55888</v>
+        <v>1000|158888</v>
       </c>
       <c r="E37" s="1" t="str">
         <v>潮流少女</v>
@@ -1631,7 +1648,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
+    <row customHeight="true" ht="23" r="38">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1642,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="str">
-        <v>5|58888</v>
+        <v>1000|158888</v>
       </c>
       <c r="E38" s="1" t="str">
         <v>古代书生</v>

--- a/middle-to-gun/Excel/ROLE_角色表.xlsx
+++ b/middle-to-gun/Excel/ROLE_角色表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -56,6 +56,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -71,7 +78,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -97,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -106,6 +120,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,29 +449,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -486,7 +503,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -518,7 +535,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
@@ -553,7 +570,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -575,7 +592,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
+    <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -607,7 +624,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
+    <row customHeight="true" ht="23" r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -618,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>1|8888</v>
+        <v>1|5888</v>
       </c>
       <c r="E6" s="1" t="str">
         <v>双马尾女</v>
@@ -639,7 +656,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
+    <row customHeight="true" ht="23" r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -650,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>1|10888</v>
+        <v>1|5888</v>
       </c>
       <c r="E7" s="1" t="str">
         <v>男战士</v>
@@ -671,7 +688,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
+    <row customHeight="true" ht="23" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -682,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>1|13888</v>
+        <v>1|5888</v>
       </c>
       <c r="E8" s="1" t="str">
         <v>机甲少女</v>
@@ -703,7 +720,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
+    <row customHeight="true" ht="23" r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -714,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>1|15888</v>
+        <v>1|5888</v>
       </c>
       <c r="E9" s="1" t="str">
         <v>男骑士</v>
@@ -735,7 +752,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
+    <row customHeight="true" ht="23" r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -746,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="str">
-        <v>1|18888</v>
+        <v>1|5888</v>
       </c>
       <c r="E10" s="1" t="str">
         <v>纳米机甲女性</v>
@@ -767,39 +784,39 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="1">
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>219915</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="str">
-        <v>2|20888</v>
-      </c>
-      <c r="E11" s="1" t="str">
+        <v>1|5888</v>
+      </c>
+      <c r="E11" s="3" t="str">
         <v>赛博少年</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="12">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -810,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>2|20888</v>
+        <v>1|5888</v>
       </c>
       <c r="E12" s="1" t="str">
         <v>赛博少年</v>
@@ -831,39 +848,39 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="1">
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>219912</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="1" t="str">
-        <v>2|28888</v>
-      </c>
-      <c r="E13" s="1" t="str">
+        <v>1|5888</v>
+      </c>
+      <c r="E13" s="3" t="str">
         <v>赛博少女</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="14">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -874,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>2|28888</v>
+        <v>1|5888</v>
       </c>
       <c r="E14" s="1" t="str">
         <v>赛博少女</v>
@@ -895,7 +912,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
+    <row customHeight="true" ht="23" r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -906,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>3|30888</v>
+        <v>1|5888</v>
       </c>
       <c r="E15" s="1" t="str">
         <v>一定锅少年</v>
@@ -927,7 +944,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
+    <row customHeight="true" ht="23" r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -938,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v>3|30888</v>
+        <v>1|5888</v>
       </c>
       <c r="E16" s="1" t="str">
         <v>求神少年</v>
@@ -959,39 +976,39 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="1">
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>264622</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="str">
-        <v>3|35888</v>
-      </c>
-      <c r="E17" s="1" t="str">
+        <v>1|5888</v>
+      </c>
+      <c r="E17" s="3" t="str">
         <v>一定锅少女</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="18">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1002,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>3|38888</v>
+        <v>1|5888</v>
       </c>
       <c r="E18" s="1" t="str">
         <v>求神少女</v>
@@ -1023,7 +1040,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
+    <row customHeight="true" ht="23" r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1034,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>3|38888</v>
+        <v>1|5888</v>
       </c>
       <c r="E19" s="1" t="str">
         <v>宝石铠甲男</v>
@@ -1055,7 +1072,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
+    <row customHeight="true" ht="23" r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1066,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>3|38888</v>
+        <v>1|5888</v>
       </c>
       <c r="E20" s="1" t="str">
         <v>铠甲男战士</v>
@@ -1087,7 +1104,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
+    <row customHeight="true" ht="23" r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1098,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v>3|38888</v>
+        <v>1|5888</v>
       </c>
       <c r="E21" s="1" t="str">
         <v>黑人男纳米机甲</v>
@@ -1119,7 +1136,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
+    <row customHeight="true" ht="23" r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1130,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>3|38888</v>
+        <v>1|5888</v>
       </c>
       <c r="E22" s="1" t="str">
         <v>白人男纳米机甲</v>
@@ -1151,7 +1168,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
+    <row customHeight="true" ht="23" r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1162,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>3|38888</v>
+        <v>1|5888</v>
       </c>
       <c r="E23" s="1" t="str">
         <v>白银骑士</v>
@@ -1183,7 +1200,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
+    <row customHeight="true" ht="23" r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1194,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v>4|40888</v>
+        <v>1|5888</v>
       </c>
       <c r="E24" s="1" t="str">
         <v>鹰战士</v>
@@ -1215,7 +1232,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
+    <row customHeight="true" ht="23" r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1226,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>4|40888</v>
+        <v>1|5888</v>
       </c>
       <c r="E25" s="1" t="str">
         <v>战士</v>
@@ -1247,7 +1264,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="26">
+    <row customHeight="true" ht="23" r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1258,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v>4|43888</v>
+        <v>1|5888</v>
       </c>
       <c r="E26" s="1" t="str">
         <v>毒液怪人</v>
@@ -1279,7 +1296,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="27">
+    <row customHeight="true" ht="23" r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1290,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="str">
-        <v>4|43888</v>
+        <v>1|5888</v>
       </c>
       <c r="E27" s="1" t="str">
         <v>蚁侠士</v>
@@ -1311,7 +1328,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="28">
+    <row customHeight="true" ht="23" r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1322,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="str">
-        <v>4|45888</v>
+        <v>1|5888</v>
       </c>
       <c r="E28" s="1" t="str">
         <v>最强队长</v>
@@ -1343,7 +1360,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="29">
+    <row customHeight="true" ht="23" r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1354,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="str">
-        <v>4|45888</v>
+        <v>1|5888</v>
       </c>
       <c r="E29" s="1" t="str">
         <v>超帅侠</v>
@@ -1375,7 +1392,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="30">
+    <row customHeight="true" ht="23" r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1386,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>4|45888</v>
+        <v>1|5888</v>
       </c>
       <c r="E30" s="1" t="str">
         <v>奇异战士</v>
@@ -1407,7 +1424,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="31">
+    <row customHeight="true" ht="23" r="31">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1418,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="str">
-        <v>4|45888</v>
+        <v>1|5888</v>
       </c>
       <c r="E31" s="1" t="str">
         <v>闪电怪</v>
@@ -1439,7 +1456,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="32">
+    <row customHeight="true" ht="23" r="32">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1450,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="str">
-        <v>4|48888</v>
+        <v>1|5888</v>
       </c>
       <c r="E32" s="1" t="str">
         <v>恶灵骷髅</v>
@@ -1471,7 +1488,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="33">
+    <row customHeight="true" ht="23" r="33">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1482,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="str">
-        <v>4|48888</v>
+        <v>1|5888</v>
       </c>
       <c r="E33" s="1" t="str">
         <v>铁人</v>
@@ -1503,7 +1520,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="34">
+    <row customHeight="true" ht="23" r="34">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1514,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="str">
-        <v>5|50888</v>
+        <v>1|5888</v>
       </c>
       <c r="E34" s="1" t="str">
         <v>风衣女</v>
@@ -1535,7 +1552,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="35">
+    <row customHeight="true" ht="23" r="35">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -1546,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>5|55888</v>
+        <v>1|5888</v>
       </c>
       <c r="E35" s="1" t="str">
         <v>汉服少女</v>
@@ -1567,39 +1584,39 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="36">
-      <c r="A36" s="1">
+    <row customHeight="true" ht="23" r="36">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>266860</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="str">
-        <v>5|55888</v>
-      </c>
-      <c r="E36" s="1" t="str">
+        <v>1|5888</v>
+      </c>
+      <c r="E36" s="3" t="str">
         <v>时尚少女</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="37">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row customHeight="true" ht="23" r="37">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -1610,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>5|55888</v>
+        <v>1|5888</v>
       </c>
       <c r="E37" s="1" t="str">
         <v>潮流少女</v>
@@ -1631,7 +1648,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="38">
+    <row customHeight="true" ht="23" r="38">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1642,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="str">
-        <v>5|58888</v>
+        <v>1|5888</v>
       </c>
       <c r="E38" s="1" t="str">
         <v>古代书生</v>

--- a/middle-to-gun/Excel/ROLE_角色表.xlsx
+++ b/middle-to-gun/Excel/ROLE_角色表.xlsx
@@ -51,14 +51,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,10 +119,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +542,7 @@
       <c r="B3" s="1" t="str">
         <v>角色Guid</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="2" t="str">
         <v>0-免费
 1-金币|钻石
 2-钻石</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>100|5888</v>
+        <v>1|5888</v>
       </c>
       <c r="E5" s="1" t="str">
         <v>兜帽男</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>100|8888</v>
+        <v>1|5888</v>
       </c>
       <c r="E6" s="1" t="str">
         <v>双马尾女</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="str">
-        <v>100|10888</v>
+        <v>1|5888</v>
       </c>
       <c r="E7" s="1" t="str">
         <v>男战士</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>100|13888</v>
+        <v>1|5888</v>
       </c>
       <c r="E8" s="1" t="str">
         <v>机甲少女</v>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="str">
-        <v>100|15888</v>
+        <v>1|5888</v>
       </c>
       <c r="E9" s="1" t="str">
         <v>男骑士</v>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="str">
-        <v>100|18888</v>
+        <v>1|5888</v>
       </c>
       <c r="E10" s="1" t="str">
         <v>纳米机甲女性</v>
@@ -785,36 +785,36 @@
       <c r="T10" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>219915</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <v>300|30888</v>
-      </c>
-      <c r="E11" s="2" t="str">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>1|5888</v>
+      </c>
+      <c r="E11" s="3" t="str">
         <v>赛博少年</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
     </row>
     <row customHeight="true" ht="23" r="12">
       <c r="A12" s="1">
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="str">
-        <v>300|30888</v>
+        <v>1|5888</v>
       </c>
       <c r="E12" s="1" t="str">
         <v>赛博少年</v>
@@ -849,36 +849,36 @@
       <c r="T12" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>219912</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <v>300|30888</v>
-      </c>
-      <c r="E13" s="2" t="str">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <v>1|5888</v>
+      </c>
+      <c r="E13" s="3" t="str">
         <v>赛博少女</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
     </row>
     <row customHeight="true" ht="23" r="14">
       <c r="A14" s="1">
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="str">
-        <v>300|30888</v>
+        <v>1|5888</v>
       </c>
       <c r="E14" s="1" t="str">
         <v>赛博少女</v>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="str">
-        <v>500|50888</v>
+        <v>1|5888</v>
       </c>
       <c r="E15" s="1" t="str">
         <v>一定锅少年</v>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
-        <v>500|60888</v>
+        <v>1|5888</v>
       </c>
       <c r="E16" s="1" t="str">
         <v>求神少年</v>
@@ -977,36 +977,36 @@
       <c r="T16" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>264622</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <v>300|35888</v>
-      </c>
-      <c r="E17" s="2" t="str">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <v>1|5888</v>
+      </c>
+      <c r="E17" s="3" t="str">
         <v>一定锅少女</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
     </row>
     <row customHeight="true" ht="23" r="18">
       <c r="A18" s="1">
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="str">
-        <v>500|60888</v>
+        <v>1|5888</v>
       </c>
       <c r="E18" s="1" t="str">
         <v>求神少女</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E19" s="1" t="str">
         <v>宝石铠甲男</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E20" s="1" t="str">
         <v>铠甲男战士</v>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E21" s="1" t="str">
         <v>黑人男纳米机甲</v>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E22" s="1" t="str">
         <v>白人男纳米机甲</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E23" s="1" t="str">
         <v>白银骑士</v>
@@ -1211,7 +1211,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E24" s="1" t="str">
         <v>鹰战士</v>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E25" s="1" t="str">
         <v>战士</v>
@@ -1275,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E26" s="1" t="str">
         <v>毒液怪人</v>
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E27" s="1" t="str">
         <v>蚁侠士</v>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E28" s="1" t="str">
         <v>最强队长</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E29" s="1" t="str">
         <v>超帅侠</v>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E30" s="1" t="str">
         <v>奇异战士</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E31" s="1" t="str">
         <v>闪电怪</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="str">
-        <v>600|88888</v>
+        <v>1|5888</v>
       </c>
       <c r="E32" s="1" t="str">
         <v>恶灵骷髅</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="str">
-        <v>1000|108888</v>
+        <v>1|5888</v>
       </c>
       <c r="E33" s="1" t="str">
         <v>铁人</v>
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="str">
-        <v>1000|128888</v>
+        <v>1|5888</v>
       </c>
       <c r="E34" s="1" t="str">
         <v>风衣女</v>
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="str">
-        <v>1000|158888</v>
+        <v>1|5888</v>
       </c>
       <c r="E35" s="1" t="str">
         <v>汉服少女</v>
@@ -1585,36 +1585,36 @@
       <c r="T35" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>32</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>266860</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="str">
-        <v>1000|158888</v>
-      </c>
-      <c r="E36" s="2" t="str">
+        <v>1|5888</v>
+      </c>
+      <c r="E36" s="3" t="str">
         <v>时尚少女</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
     </row>
     <row customHeight="true" ht="23" r="37">
       <c r="A37" s="1">
@@ -1627,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="str">
-        <v>1000|158888</v>
+        <v>1|5888</v>
       </c>
       <c r="E37" s="1" t="str">
         <v>潮流少女</v>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="str">
-        <v>1000|158888</v>
+        <v>1|5888</v>
       </c>
       <c r="E38" s="1" t="str">
         <v>古代书生</v>
